--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-26/Sample-26.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-26/Sample-26.xlsx
@@ -9,6 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Chart And Secondary Axis'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Chart And Secondary Axis'!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -531,9 +532,17 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="11.7065029144287" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="17.219801902771" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="17.735426902771" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
@@ -677,6 +686,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
